--- a/sample-data/exams cea gce 2018.xlsx
+++ b/sample-data/exams cea gce 2018.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67351A0B-5E79-8044-BC10-A9DFA8E3835D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="25000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEA 2018" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CEA 2018'!$A$1:$L$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CEA 2018'!$A$1:$L$206</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -106,9 +112,6 @@
     <t>ABY31</t>
   </si>
   <si>
-    <t>CGE</t>
-  </si>
-  <si>
     <t>APH31</t>
   </si>
   <si>
@@ -1607,12 +1610,15 @@
   </si>
   <si>
     <t>Chemistry AS Unit 1 (1hr 30m)</t>
+  </si>
+  <si>
+    <t>GCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1648,6 +1654,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2919,6 +2926,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3243,15 +3258,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -3268,7 +3283,7 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -3306,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3320,10 +3335,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>527</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -3332,10 +3347,10 @@
         <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3349,10 +3364,10 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>527</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -3361,10 +3376,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3378,10 +3393,10 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>527</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -3390,10 +3405,10 @@
         <v>22</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3407,10 +3422,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>20</v>
@@ -3419,10 +3434,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3433,25 +3448,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3462,25 +3477,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3491,25 +3506,25 @@
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3520,25 +3535,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3549,25 +3564,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3578,25 +3593,25 @@
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3607,25 +3622,25 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -3636,25 +3651,25 @@
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -3665,25 +3680,25 @@
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3694,25 +3709,25 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3723,25 +3738,25 @@
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3752,25 +3767,25 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>494</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3781,25 +3796,25 @@
         <v>5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>468</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3810,25 +3825,25 @@
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>500</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3839,25 +3854,25 @@
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -3868,25 +3883,25 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3897,25 +3912,25 @@
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3926,25 +3941,25 @@
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3955,25 +3970,25 @@
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>501</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -3984,25 +3999,25 @@
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -4013,25 +4028,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -4042,25 +4057,25 @@
         <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>494</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>493</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -4071,25 +4086,25 @@
         <v>13</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>494</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>493</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -4100,25 +4115,25 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>476</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -4129,25 +4144,25 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -4158,25 +4173,25 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -4187,25 +4202,25 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -4216,25 +4231,25 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>495</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -4245,25 +4260,25 @@
         <v>13</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -4274,25 +4289,25 @@
         <v>13</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -4303,25 +4318,25 @@
         <v>13</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>496</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -4332,25 +4347,25 @@
         <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>481</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -4361,25 +4376,25 @@
         <v>13</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -4390,25 +4405,25 @@
         <v>13</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -4419,25 +4434,25 @@
         <v>13</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -4448,25 +4463,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>501</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>500</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4477,25 +4492,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4506,25 +4521,25 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4535,25 +4550,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>468</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4564,25 +4579,25 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4593,25 +4608,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>469</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>468</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4622,25 +4637,25 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>469</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>27</v>
+        <v>468</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -4651,25 +4666,25 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>27</v>
+        <v>485</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -4680,25 +4695,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>466</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -4709,25 +4724,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>466</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -4738,25 +4753,25 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>466</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -4767,25 +4782,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>503</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>27</v>
+        <v>502</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -4796,25 +4811,25 @@
         <v>5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>504</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>27</v>
+        <v>503</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -4825,25 +4840,25 @@
         <v>5</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>476</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -4854,25 +4869,25 @@
         <v>5</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -4883,25 +4898,25 @@
         <v>5</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>466</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4912,25 +4927,25 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -4941,25 +4956,25 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>496</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -4970,25 +4985,25 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>496</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -4999,25 +5014,25 @@
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>471</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>27</v>
+        <v>470</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -5028,25 +5043,25 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>476</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -5057,25 +5072,25 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -5086,25 +5101,25 @@
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="30">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -5115,25 +5130,25 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>27</v>
+        <v>497</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -5144,25 +5159,25 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -5173,25 +5188,25 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -5202,25 +5217,25 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>27</v>
+        <v>498</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -5231,25 +5246,25 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -5260,25 +5275,25 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>491</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -5289,25 +5304,25 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -5318,25 +5333,25 @@
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -5347,25 +5362,25 @@
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -5376,25 +5391,25 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -5405,25 +5420,25 @@
         <v>5</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>497</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -5434,25 +5449,25 @@
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -5463,25 +5478,25 @@
         <v>5</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -5492,25 +5507,25 @@
         <v>5</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>499</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -5521,25 +5536,25 @@
         <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -5550,25 +5565,25 @@
         <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -5579,25 +5594,25 @@
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -5608,25 +5623,25 @@
         <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -5637,25 +5652,25 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -5666,25 +5681,25 @@
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -5695,25 +5710,25 @@
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -5724,25 +5739,25 @@
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -5753,25 +5768,25 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>499</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>27</v>
+        <v>498</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -5782,25 +5797,25 @@
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>499</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>498</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -5811,25 +5826,25 @@
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -5840,25 +5855,25 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -5869,25 +5884,25 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -5898,25 +5913,25 @@
         <v>5</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>27</v>
+        <v>488</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -5927,25 +5942,25 @@
         <v>5</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -5956,25 +5971,25 @@
         <v>5</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -5985,25 +6000,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -6014,25 +6029,25 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -6043,25 +6058,25 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -6072,25 +6087,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -6101,25 +6116,25 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -6130,25 +6145,25 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -6159,25 +6174,25 @@
         <v>5</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -6188,25 +6203,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -6217,25 +6232,25 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -6246,25 +6261,25 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -6275,25 +6290,25 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -6304,25 +6319,25 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -6333,25 +6348,25 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -6362,25 +6377,25 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>485</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -6391,25 +6406,25 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -6420,25 +6435,25 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -6449,25 +6464,25 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>27</v>
+        <v>494</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>16</v>
       </c>
@@ -6478,25 +6493,25 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>27</v>
+        <v>494</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -6507,25 +6522,25 @@
         <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>16</v>
       </c>
@@ -6536,25 +6551,25 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>27</v>
+        <v>493</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -6565,25 +6580,25 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>27</v>
+        <v>493</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -6594,25 +6609,25 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -6623,25 +6638,25 @@
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -6652,25 +6667,25 @@
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -6681,25 +6696,25 @@
         <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -6710,25 +6725,25 @@
         <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -6739,25 +6754,25 @@
         <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -6768,25 +6783,25 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>16</v>
       </c>
@@ -6797,25 +6812,25 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>16</v>
       </c>
@@ -6826,25 +6841,25 @@
         <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>16</v>
       </c>
@@ -6855,25 +6870,25 @@
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>27</v>
+        <v>476</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -6884,25 +6899,25 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>27</v>
+        <v>476</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -6913,25 +6928,25 @@
         <v>13</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -6942,25 +6957,25 @@
         <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>27</v>
+        <v>481</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>16</v>
       </c>
@@ -6971,25 +6986,25 @@
         <v>13</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>27</v>
+        <v>481</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>16</v>
       </c>
@@ -7000,25 +7015,25 @@
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>16</v>
       </c>
@@ -7029,25 +7044,25 @@
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
@@ -7058,25 +7073,25 @@
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -7087,25 +7102,25 @@
         <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -7116,25 +7131,25 @@
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
@@ -7145,25 +7160,25 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>16</v>
       </c>
@@ -7174,25 +7189,25 @@
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>27</v>
+        <v>488</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>16</v>
       </c>
@@ -7203,25 +7218,25 @@
         <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>27</v>
+        <v>490</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>16</v>
       </c>
@@ -7232,25 +7247,25 @@
         <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>27</v>
+        <v>489</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
@@ -7261,25 +7276,25 @@
         <v>5</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>27</v>
+        <v>464</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>16</v>
       </c>
@@ -7290,25 +7305,25 @@
         <v>5</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>27</v>
+        <v>482</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>16</v>
       </c>
@@ -7319,25 +7334,25 @@
         <v>5</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>27</v>
+        <v>482</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -7348,25 +7363,25 @@
         <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>27</v>
+        <v>489</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -7377,25 +7392,25 @@
         <v>5</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>27</v>
+        <v>488</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>16</v>
       </c>
@@ -7406,25 +7421,25 @@
         <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>16</v>
       </c>
@@ -7435,25 +7450,25 @@
         <v>5</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -7464,25 +7479,25 @@
         <v>5</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>27</v>
+        <v>468</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -7493,25 +7508,25 @@
         <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>16</v>
       </c>
@@ -7522,25 +7537,25 @@
         <v>5</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>16</v>
       </c>
@@ -7551,25 +7566,25 @@
         <v>5</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>27</v>
+        <v>487</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>16</v>
       </c>
@@ -7580,25 +7595,25 @@
         <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>16</v>
       </c>
@@ -7609,25 +7624,25 @@
         <v>5</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>16</v>
       </c>
@@ -7638,25 +7653,25 @@
         <v>5</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>16</v>
       </c>
@@ -7667,25 +7682,25 @@
         <v>5</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>16</v>
       </c>
@@ -7696,25 +7711,25 @@
         <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
@@ -7725,25 +7740,25 @@
         <v>5</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>16</v>
       </c>
@@ -7754,25 +7769,25 @@
         <v>5</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>27</v>
+        <v>486</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>16</v>
       </c>
@@ -7783,25 +7798,25 @@
         <v>5</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>16</v>
       </c>
@@ -7812,25 +7827,25 @@
         <v>5</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>27</v>
+        <v>485</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>16</v>
       </c>
@@ -7841,25 +7856,25 @@
         <v>5</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>27</v>
+        <v>484</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -7870,25 +7885,25 @@
         <v>5</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -7899,25 +7914,25 @@
         <v>5</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>27</v>
+        <v>482</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>16</v>
       </c>
@@ -7928,25 +7943,25 @@
         <v>5</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>27</v>
+        <v>482</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>16</v>
       </c>
@@ -7957,25 +7972,25 @@
         <v>13</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>27</v>
+        <v>481</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>16</v>
       </c>
@@ -7986,25 +8001,25 @@
         <v>13</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>27</v>
+        <v>481</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -8015,25 +8030,25 @@
         <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>16</v>
       </c>
@@ -8044,25 +8059,25 @@
         <v>13</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>16</v>
       </c>
@@ -8073,25 +8088,25 @@
         <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>27</v>
+        <v>480</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>16</v>
       </c>
@@ -8102,25 +8117,25 @@
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>16</v>
       </c>
@@ -8131,25 +8146,25 @@
         <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>16</v>
       </c>
@@ -8160,25 +8175,25 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>16</v>
       </c>
@@ -8189,25 +8204,25 @@
         <v>13</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
@@ -8218,25 +8233,25 @@
         <v>13</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I171" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>16</v>
       </c>
@@ -8247,25 +8262,25 @@
         <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>16</v>
       </c>
@@ -8276,25 +8291,25 @@
         <v>13</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>27</v>
+        <v>477</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>16</v>
       </c>
@@ -8305,25 +8320,25 @@
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -8334,25 +8349,25 @@
         <v>13</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>16</v>
       </c>
@@ -8363,25 +8378,25 @@
         <v>13</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>27</v>
+        <v>476</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>16</v>
       </c>
@@ -8392,25 +8407,25 @@
         <v>13</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>27</v>
+        <v>476</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -8421,25 +8436,25 @@
         <v>13</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>27</v>
+        <v>475</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>16</v>
       </c>
@@ -8450,25 +8465,25 @@
         <v>13</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>16</v>
       </c>
@@ -8479,25 +8494,25 @@
         <v>13</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>27</v>
+        <v>474</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -8508,25 +8523,25 @@
         <v>13</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -8537,25 +8552,25 @@
         <v>13</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -8566,25 +8581,25 @@
         <v>5</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -8595,25 +8610,25 @@
         <v>5</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -8624,25 +8639,25 @@
         <v>5</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -8653,25 +8668,25 @@
         <v>5</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -8682,25 +8697,25 @@
         <v>5</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I187" t="s">
         <v>21</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -8711,25 +8726,25 @@
         <v>5</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -8740,25 +8755,25 @@
         <v>5</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>27</v>
+        <v>470</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -8769,25 +8784,25 @@
         <v>5</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -8798,25 +8813,25 @@
         <v>5</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>27</v>
+        <v>472</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -8827,25 +8842,25 @@
         <v>5</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>27</v>
+        <v>471</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -8856,25 +8871,25 @@
         <v>5</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>16</v>
       </c>
@@ -8885,25 +8900,25 @@
         <v>5</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>16</v>
       </c>
@@ -8914,25 +8929,25 @@
         <v>5</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>16</v>
       </c>
@@ -8943,25 +8958,25 @@
         <v>5</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>27</v>
+        <v>470</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>16</v>
       </c>
@@ -8972,25 +8987,25 @@
         <v>5</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>16</v>
       </c>
@@ -9001,25 +9016,25 @@
         <v>13</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>27</v>
+        <v>464</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>16</v>
       </c>
@@ -9030,25 +9045,25 @@
         <v>13</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>27</v>
+        <v>469</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>16</v>
       </c>
@@ -9059,25 +9074,25 @@
         <v>13</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>27</v>
+        <v>468</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>16</v>
       </c>
@@ -9088,25 +9103,25 @@
         <v>13</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>16</v>
       </c>
@@ -9117,25 +9132,25 @@
         <v>13</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>16</v>
       </c>
@@ -9146,25 +9161,25 @@
         <v>13</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>27</v>
+        <v>466</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>16</v>
       </c>
@@ -9175,25 +9190,25 @@
         <v>13</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>27</v>
+        <v>465</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>16</v>
       </c>
@@ -9204,25 +9219,25 @@
         <v>13</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>27</v>
+        <v>464</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>16</v>
       </c>
@@ -9233,29 +9248,26 @@
         <v>5</v>
       </c>
       <c r="D206" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>27</v>
+      <c r="F206" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="J207" s="5"/>
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L207"/>
+  <autoFilter ref="A1:L206" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -9267,26 +9279,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
